--- a/Code/Results/Cases/Case_5_158/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_158/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.044933626819532</v>
+        <v>1.072518403766447</v>
       </c>
       <c r="D2">
-        <v>1.057175229713197</v>
+        <v>1.071734474037007</v>
       </c>
       <c r="E2">
-        <v>1.051956917623666</v>
+        <v>1.076252960779337</v>
       </c>
       <c r="F2">
-        <v>1.060230237262169</v>
+        <v>1.086234518589867</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.070715388789459</v>
+        <v>1.061579896306071</v>
       </c>
       <c r="J2">
-        <v>1.065848688742236</v>
+        <v>1.077437545509292</v>
       </c>
       <c r="K2">
-        <v>1.06789159953376</v>
+        <v>1.074430858838986</v>
       </c>
       <c r="L2">
-        <v>1.062736928877057</v>
+        <v>1.078937380886507</v>
       </c>
       <c r="M2">
-        <v>1.070909709740211</v>
+        <v>1.088892888960648</v>
       </c>
       <c r="N2">
         <v>1.005712725503983</v>
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.052009039220627</v>
+        <v>1.073887812894446</v>
       </c>
       <c r="D3">
-        <v>1.062861154903268</v>
+        <v>1.072835757304793</v>
       </c>
       <c r="E3">
-        <v>1.058300067795976</v>
+        <v>1.077505242709078</v>
       </c>
       <c r="F3">
-        <v>1.066968195940577</v>
+        <v>1.087588028979667</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.073956036144461</v>
+        <v>1.062110832322893</v>
       </c>
       <c r="J3">
-        <v>1.071175744198592</v>
+        <v>1.078463321328205</v>
       </c>
       <c r="K3">
-        <v>1.072748259883684</v>
+        <v>1.075348049449879</v>
       </c>
       <c r="L3">
-        <v>1.068237615281675</v>
+        <v>1.080006068472969</v>
       </c>
       <c r="M3">
-        <v>1.076810332831422</v>
+        <v>1.090064456341429</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.056453711611255</v>
+        <v>1.0747725579955</v>
       </c>
       <c r="D4">
-        <v>1.066434813717757</v>
+        <v>1.073547145343368</v>
       </c>
       <c r="E4">
-        <v>1.062285377386825</v>
+        <v>1.078314015975195</v>
       </c>
       <c r="F4">
-        <v>1.071205092727207</v>
+        <v>1.088462685324939</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.075979787547362</v>
+        <v>1.062452409196289</v>
       </c>
       <c r="J4">
-        <v>1.074515831133254</v>
+        <v>1.07912521098819</v>
       </c>
       <c r="K4">
-        <v>1.075792471829218</v>
+        <v>1.075939723953691</v>
       </c>
       <c r="L4">
-        <v>1.071685987602448</v>
+        <v>1.080695480968981</v>
       </c>
       <c r="M4">
-        <v>1.080513873207215</v>
+        <v>1.090820836773028</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.058291971388571</v>
+        <v>1.07514418642054</v>
       </c>
       <c r="D5">
-        <v>1.067913204574547</v>
+        <v>1.073845925778152</v>
       </c>
       <c r="E5">
-        <v>1.063933750649426</v>
+        <v>1.078653661465729</v>
       </c>
       <c r="F5">
-        <v>1.072958378319187</v>
+        <v>1.088830119571591</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.076813872060732</v>
+        <v>1.062595538018972</v>
       </c>
       <c r="J5">
-        <v>1.075895697944717</v>
+        <v>1.079403029489041</v>
       </c>
       <c r="K5">
-        <v>1.077049869784743</v>
+        <v>1.076188034622839</v>
       </c>
       <c r="L5">
-        <v>1.073110448366436</v>
+        <v>1.080984812066548</v>
       </c>
       <c r="M5">
-        <v>1.08204480861155</v>
+        <v>1.091138416554309</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.058598894601326</v>
+        <v>1.075206565963696</v>
       </c>
       <c r="D6">
-        <v>1.068160062482315</v>
+        <v>1.073896075607803</v>
       </c>
       <c r="E6">
-        <v>1.064208974089979</v>
+        <v>1.078710668312866</v>
       </c>
       <c r="F6">
-        <v>1.073251168911673</v>
+        <v>1.088891797644499</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.076952961694542</v>
+        <v>1.062619542485075</v>
       </c>
       <c r="J6">
-        <v>1.076125993700955</v>
+        <v>1.079449650768315</v>
       </c>
       <c r="K6">
-        <v>1.077259711626779</v>
+        <v>1.076229702013602</v>
       </c>
       <c r="L6">
-        <v>1.073348178375209</v>
+        <v>1.081033362971674</v>
       </c>
       <c r="M6">
-        <v>1.082300371266653</v>
+        <v>1.091191716133434</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.056478391359877</v>
+        <v>1.074777524956682</v>
       </c>
       <c r="D7">
-        <v>1.066454660630038</v>
+        <v>1.073551138785309</v>
       </c>
       <c r="E7">
-        <v>1.062307507464231</v>
+        <v>1.07831855575399</v>
       </c>
       <c r="F7">
-        <v>1.071228627914087</v>
+        <v>1.088467596058662</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.075990997216833</v>
+        <v>1.062454323534629</v>
       </c>
       <c r="J7">
-        <v>1.074534362867783</v>
+        <v>1.079128924935704</v>
       </c>
       <c r="K7">
-        <v>1.075809359745981</v>
+        <v>1.075943043575093</v>
       </c>
       <c r="L7">
-        <v>1.071705118798855</v>
+        <v>1.080699348975789</v>
       </c>
       <c r="M7">
-        <v>1.08053443017254</v>
+        <v>1.090825081865265</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.047353525742453</v>
+        <v>1.072981485868488</v>
       </c>
       <c r="D8">
-        <v>1.059119469035953</v>
+        <v>1.072106912035172</v>
       </c>
       <c r="E8">
-        <v>1.054126204768533</v>
+        <v>1.076676496643899</v>
       </c>
       <c r="F8">
-        <v>1.062533801725904</v>
+        <v>1.086692186202848</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.071826241652988</v>
+        <v>1.061759738929663</v>
       </c>
       <c r="J8">
-        <v>1.067671924886132</v>
+        <v>1.077784598173005</v>
       </c>
       <c r="K8">
-        <v>1.069554028624948</v>
+        <v>1.074741204604064</v>
       </c>
       <c r="L8">
-        <v>1.064619713752767</v>
+        <v>1.079298986533322</v>
       </c>
       <c r="M8">
-        <v>1.072928446888404</v>
+        <v>1.089289181016534</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.030166791463778</v>
+        <v>1.069806004645032</v>
       </c>
       <c r="D9">
-        <v>1.045322183857736</v>
+        <v>1.069552508372834</v>
       </c>
       <c r="E9">
-        <v>1.038724514423252</v>
+        <v>1.073770976952369</v>
       </c>
       <c r="F9">
-        <v>1.046193827641382</v>
+        <v>1.083554599238295</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.063886676677208</v>
+        <v>1.060520557561418</v>
       </c>
       <c r="J9">
-        <v>1.054697479333946</v>
+        <v>1.075401311360128</v>
       </c>
       <c r="K9">
-        <v>1.057720376257275</v>
+        <v>1.072609382870747</v>
       </c>
       <c r="L9">
-        <v>1.051219072768089</v>
+        <v>1.076815071582797</v>
       </c>
       <c r="M9">
-        <v>1.058579403961513</v>
+        <v>1.086569471428185</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.017832014744876</v>
+        <v>1.067681504702729</v>
       </c>
       <c r="D10">
-        <v>1.035438369798394</v>
+        <v>1.067842937746212</v>
       </c>
       <c r="E10">
-        <v>1.027680465876391</v>
+        <v>1.07182556937016</v>
       </c>
       <c r="F10">
-        <v>1.034496047731458</v>
+        <v>1.081456427884369</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.058126513891973</v>
+        <v>1.059684032647646</v>
       </c>
       <c r="J10">
-        <v>1.045355574519782</v>
+        <v>1.073802486140463</v>
       </c>
       <c r="K10">
-        <v>1.049195954423605</v>
+        <v>1.071178494396457</v>
       </c>
       <c r="L10">
-        <v>1.041567301568041</v>
+        <v>1.075147868078264</v>
       </c>
       <c r="M10">
-        <v>1.048269198849136</v>
+        <v>1.084747108415521</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.012248422178652</v>
+        <v>1.066759709130937</v>
       </c>
       <c r="D11">
-        <v>1.030970077578212</v>
+        <v>1.067101044037986</v>
       </c>
       <c r="E11">
-        <v>1.022684538134127</v>
+        <v>1.070981122375452</v>
       </c>
       <c r="F11">
-        <v>1.029208851726334</v>
+        <v>1.080546291927054</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.055505054879491</v>
+        <v>1.059319304154323</v>
       </c>
       <c r="J11">
-        <v>1.041120382969074</v>
+        <v>1.073107750589969</v>
       </c>
       <c r="K11">
-        <v>1.045330658996309</v>
+        <v>1.070556554809426</v>
       </c>
       <c r="L11">
-        <v>1.037190972302874</v>
+        <v>1.074423211847765</v>
       </c>
       <c r="M11">
-        <v>1.043600181920665</v>
+        <v>1.083955747728346</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>1.010134597739448</v>
+        <v>1.066417024672261</v>
       </c>
       <c r="D12">
-        <v>1.029279494616019</v>
+        <v>1.066825220532878</v>
       </c>
       <c r="E12">
-        <v>1.020793806882212</v>
+        <v>1.07066713938956</v>
       </c>
       <c r="F12">
-        <v>1.027208550676898</v>
+        <v>1.080207977841416</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.054510594373508</v>
+        <v>1.059183447806929</v>
       </c>
       <c r="J12">
-        <v>1.039516151241938</v>
+        <v>1.072849323771709</v>
       </c>
       <c r="K12">
-        <v>1.043866451910391</v>
+        <v>1.070325180092355</v>
       </c>
       <c r="L12">
-        <v>1.035533186529611</v>
+        <v>1.074153623743957</v>
       </c>
       <c r="M12">
-        <v>1.0418324052215</v>
+        <v>1.083661454673405</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.010589881806765</v>
+        <v>1.066490544823996</v>
       </c>
       <c r="D13">
-        <v>1.02964357109906</v>
+        <v>1.066884397056838</v>
       </c>
       <c r="E13">
-        <v>1.0212010105729</v>
+        <v>1.070734504288632</v>
       </c>
       <c r="F13">
-        <v>1.027639322489754</v>
+        <v>1.08028055873841</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.05472487591556</v>
+        <v>1.059212606699472</v>
       </c>
       <c r="J13">
-        <v>1.039861715643837</v>
+        <v>1.072904774082825</v>
       </c>
       <c r="K13">
-        <v>1.044181857455415</v>
+        <v>1.070374827062023</v>
       </c>
       <c r="L13">
-        <v>1.035890290993416</v>
+        <v>1.074211470341856</v>
       </c>
       <c r="M13">
-        <v>1.042213163101008</v>
+        <v>1.08372459730911</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.012074526446644</v>
+        <v>1.066731388654239</v>
       </c>
       <c r="D14">
-        <v>1.030830978800315</v>
+        <v>1.067078249533466</v>
       </c>
       <c r="E14">
-        <v>1.022528982215197</v>
+        <v>1.070955174963404</v>
       </c>
       <c r="F14">
-        <v>1.029044267806495</v>
+        <v>1.080518331898399</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.055423285482843</v>
+        <v>1.059308081995592</v>
       </c>
       <c r="J14">
-        <v>1.040988426765538</v>
+        <v>1.073086396550685</v>
       </c>
       <c r="K14">
-        <v>1.045210222168589</v>
+        <v>1.070537436647544</v>
       </c>
       <c r="L14">
-        <v>1.037054612854908</v>
+        <v>1.074400936183085</v>
       </c>
       <c r="M14">
-        <v>1.043454757411609</v>
+        <v>1.083931428475725</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.012983878471601</v>
+        <v>1.066879742038352</v>
       </c>
       <c r="D15">
-        <v>1.031558409345648</v>
+        <v>1.067197655012169</v>
       </c>
       <c r="E15">
-        <v>1.023342455665694</v>
+        <v>1.071091095149669</v>
       </c>
       <c r="F15">
-        <v>1.029904979684104</v>
+        <v>1.080664798587899</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.055850799519446</v>
+        <v>1.059366857034231</v>
       </c>
       <c r="J15">
-        <v>1.041678429274347</v>
+        <v>1.073198250808612</v>
       </c>
       <c r="K15">
-        <v>1.045839986149396</v>
+        <v>1.070637578109976</v>
       </c>
       <c r="L15">
-        <v>1.037767636304567</v>
+        <v>1.074517616705373</v>
       </c>
       <c r="M15">
-        <v>1.044215217869993</v>
+        <v>1.084058817891281</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.018197189491061</v>
+        <v>1.067742641167737</v>
       </c>
       <c r="D16">
-        <v>1.035730734134258</v>
+        <v>1.067892139843757</v>
       </c>
       <c r="E16">
-        <v>1.028007285374325</v>
+        <v>1.071881568323865</v>
       </c>
       <c r="F16">
-        <v>1.034842012804671</v>
+        <v>1.081516796045177</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.058297676904689</v>
+        <v>1.059708185370367</v>
       </c>
       <c r="J16">
-        <v>1.045632436133554</v>
+        <v>1.073848541710123</v>
       </c>
       <c r="K16">
-        <v>1.049448622215156</v>
+        <v>1.071219720444575</v>
       </c>
       <c r="L16">
-        <v>1.041853376439639</v>
+        <v>1.075195902761956</v>
       </c>
       <c r="M16">
-        <v>1.048574527592465</v>
+        <v>1.084799580167482</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.021400162069533</v>
+        <v>1.068283408497727</v>
       </c>
       <c r="D17">
-        <v>1.03829575360511</v>
+        <v>1.068327329676091</v>
       </c>
       <c r="E17">
-        <v>1.030874235479959</v>
+        <v>1.072376851859117</v>
       </c>
       <c r="F17">
-        <v>1.037877415274311</v>
+        <v>1.082050794807497</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.059797387270461</v>
+        <v>1.05992161799101</v>
       </c>
       <c r="J17">
-        <v>1.04806009629966</v>
+        <v>1.074255796597578</v>
       </c>
       <c r="K17">
-        <v>1.051664060786165</v>
+        <v>1.071584248966395</v>
       </c>
       <c r="L17">
-        <v>1.044361749351415</v>
+        <v>1.075620634289882</v>
       </c>
       <c r="M17">
-        <v>1.051252383827138</v>
+        <v>1.085263629947494</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.023245249302926</v>
+        <v>1.068598648692316</v>
       </c>
       <c r="D18">
-        <v>1.039773882133347</v>
+        <v>1.06858101080674</v>
       </c>
       <c r="E18">
-        <v>1.032526066326933</v>
+        <v>1.072665542816396</v>
       </c>
       <c r="F18">
-        <v>1.039626721476461</v>
+        <v>1.082362111980111</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.060659982221964</v>
+        <v>1.060045867889657</v>
       </c>
       <c r="J18">
-        <v>1.049457956044398</v>
+        <v>1.074493107040403</v>
       </c>
       <c r="K18">
-        <v>1.052939653860206</v>
+        <v>1.071796645346101</v>
       </c>
       <c r="L18">
-        <v>1.045806021678747</v>
+        <v>1.075868108448337</v>
       </c>
       <c r="M18">
-        <v>1.052794791356385</v>
+        <v>1.085534084162108</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.023870545369467</v>
+        <v>1.068706107095045</v>
       </c>
       <c r="D19">
-        <v>1.040274903932054</v>
+        <v>1.068667482912435</v>
       </c>
       <c r="E19">
-        <v>1.033085917997784</v>
+        <v>1.072763945317339</v>
       </c>
       <c r="F19">
-        <v>1.040219681606291</v>
+        <v>1.082468236952685</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.060952087907024</v>
+        <v>1.060088192987353</v>
       </c>
       <c r="J19">
-        <v>1.049931582884436</v>
+        <v>1.074573984167789</v>
       </c>
       <c r="K19">
-        <v>1.053371841794982</v>
+        <v>1.071869028673829</v>
       </c>
       <c r="L19">
-        <v>1.046295363449687</v>
+        <v>1.075952446046706</v>
       </c>
       <c r="M19">
-        <v>1.053317476125765</v>
+        <v>1.085626265238114</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.02105893132229</v>
+        <v>1.068225407977326</v>
       </c>
       <c r="D20">
-        <v>1.038022430840994</v>
+        <v>1.068280654278548</v>
       </c>
       <c r="E20">
-        <v>1.030568770071631</v>
+        <v>1.072323733311102</v>
       </c>
       <c r="F20">
-        <v>1.03755395821641</v>
+        <v>1.081993517903728</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.059637751400589</v>
+        <v>1.059898743718733</v>
       </c>
       <c r="J20">
-        <v>1.047801526337998</v>
+        <v>1.074212126292803</v>
       </c>
       <c r="K20">
-        <v>1.0514281015021</v>
+        <v>1.071545162015132</v>
       </c>
       <c r="L20">
-        <v>1.044094589112465</v>
+        <v>1.075575092025227</v>
       </c>
       <c r="M20">
-        <v>1.050967115184491</v>
+        <v>1.085213864409867</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.011638464492812</v>
+        <v>1.066660474171746</v>
       </c>
       <c r="D21">
-        <v>1.030482190685204</v>
+        <v>1.067021171784082</v>
       </c>
       <c r="E21">
-        <v>1.022138919578949</v>
+        <v>1.070890201773278</v>
       </c>
       <c r="F21">
-        <v>1.028631577717255</v>
+        <v>1.080448320557787</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.055218207607838</v>
+        <v>1.059279977414661</v>
       </c>
       <c r="J21">
-        <v>1.040657518714105</v>
+        <v>1.073032923549055</v>
       </c>
       <c r="K21">
-        <v>1.044908200060581</v>
+        <v>1.070489562116989</v>
       </c>
       <c r="L21">
-        <v>1.036712661264637</v>
+        <v>1.074345154816122</v>
       </c>
       <c r="M21">
-        <v>1.043090087339359</v>
+        <v>1.083870531465472</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>1.005482990070783</v>
+        <v>1.065674865204818</v>
       </c>
       <c r="D22">
-        <v>1.025561294204993</v>
+        <v>1.066227829573951</v>
       </c>
       <c r="E22">
-        <v>1.016634397181685</v>
+        <v>1.069987041873091</v>
       </c>
       <c r="F22">
-        <v>1.022809310895744</v>
+        <v>1.079475349333228</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.05231855000061</v>
+        <v>1.058888734635827</v>
       </c>
       <c r="J22">
-        <v>1.035984401314978</v>
+        <v>1.072289362166281</v>
       </c>
       <c r="K22">
-        <v>1.040642832959758</v>
+        <v>1.06982378705905</v>
       </c>
       <c r="L22">
-        <v>1.031883372284795</v>
+        <v>1.073569420110346</v>
       </c>
       <c r="M22">
-        <v>1.037942060219692</v>
+        <v>1.083023917164291</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>1.008769407032568</v>
+        <v>1.066197516137465</v>
       </c>
       <c r="D23">
-        <v>1.028187954223994</v>
+        <v>1.066648534942497</v>
       </c>
       <c r="E23">
-        <v>1.019572886735487</v>
+        <v>1.070466000738367</v>
       </c>
       <c r="F23">
-        <v>1.025917062552522</v>
+        <v>1.079991278906504</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.053867768661095</v>
+        <v>1.059096349427043</v>
       </c>
       <c r="J23">
-        <v>1.038479837255227</v>
+        <v>1.072683743736635</v>
       </c>
       <c r="K23">
-        <v>1.042920570326694</v>
+        <v>1.070176925543545</v>
       </c>
       <c r="L23">
-        <v>1.034462251912145</v>
+        <v>1.073980883550572</v>
       </c>
       <c r="M23">
-        <v>1.040690664706869</v>
+        <v>1.083472915763463</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.021213190105813</v>
+        <v>1.068251616472297</v>
       </c>
       <c r="D24">
-        <v>1.03814598908284</v>
+        <v>1.068301745368641</v>
       </c>
       <c r="E24">
-        <v>1.030706859607134</v>
+        <v>1.072347735912629</v>
       </c>
       <c r="F24">
-        <v>1.03770017980361</v>
+        <v>1.082019399350404</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.059709921439375</v>
+        <v>1.059909080364469</v>
       </c>
       <c r="J24">
-        <v>1.047918418885051</v>
+        <v>1.074231859747773</v>
       </c>
       <c r="K24">
-        <v>1.051534772581863</v>
+        <v>1.071562824426811</v>
       </c>
       <c r="L24">
-        <v>1.044215365287391</v>
+        <v>1.075595671431296</v>
       </c>
       <c r="M24">
-        <v>1.051096075987483</v>
+        <v>1.08523635198788</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.034753954649839</v>
+        <v>1.070628239895182</v>
       </c>
       <c r="D25">
-        <v>1.049002005165109</v>
+        <v>1.070214033709291</v>
       </c>
       <c r="E25">
-        <v>1.04283393808242</v>
+        <v>1.074523579055632</v>
       </c>
       <c r="F25">
-        <v>1.050550330819475</v>
+        <v>1.084366852156093</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.066016522360246</v>
+        <v>1.060842737544397</v>
       </c>
       <c r="J25">
-        <v>1.058165761670191</v>
+        <v>1.07601918444925</v>
       </c>
       <c r="K25">
-        <v>1.060884436285073</v>
+        <v>1.073162197121179</v>
       </c>
       <c r="L25">
-        <v>1.054801807251115</v>
+        <v>1.077459185516621</v>
       </c>
       <c r="M25">
-        <v>1.062411513464935</v>
+        <v>1.087274184320543</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>

--- a/Code/Results/Cases/Case_5_158/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_158/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.072518403766447</v>
+        <v>1.04493362681953</v>
       </c>
       <c r="D2">
-        <v>1.071734474037007</v>
+        <v>1.057175229713196</v>
       </c>
       <c r="E2">
-        <v>1.076252960779337</v>
+        <v>1.051956917623664</v>
       </c>
       <c r="F2">
-        <v>1.086234518589867</v>
+        <v>1.060230237262167</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.061579896306071</v>
+        <v>1.070715388789458</v>
       </c>
       <c r="J2">
-        <v>1.077437545509292</v>
+        <v>1.065848688742234</v>
       </c>
       <c r="K2">
-        <v>1.074430858838986</v>
+        <v>1.067891599533759</v>
       </c>
       <c r="L2">
-        <v>1.078937380886507</v>
+        <v>1.062736928877055</v>
       </c>
       <c r="M2">
-        <v>1.088892888960648</v>
+        <v>1.07090970974021</v>
       </c>
       <c r="N2">
         <v>1.005712725503983</v>
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.073887812894446</v>
+        <v>1.052009039220628</v>
       </c>
       <c r="D3">
-        <v>1.072835757304793</v>
+        <v>1.062861154903268</v>
       </c>
       <c r="E3">
-        <v>1.077505242709078</v>
+        <v>1.058300067795977</v>
       </c>
       <c r="F3">
-        <v>1.087588028979667</v>
+        <v>1.066968195940578</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.062110832322893</v>
+        <v>1.073956036144461</v>
       </c>
       <c r="J3">
-        <v>1.078463321328205</v>
+        <v>1.071175744198593</v>
       </c>
       <c r="K3">
-        <v>1.075348049449879</v>
+        <v>1.072748259883685</v>
       </c>
       <c r="L3">
-        <v>1.080006068472969</v>
+        <v>1.068237615281676</v>
       </c>
       <c r="M3">
-        <v>1.090064456341429</v>
+        <v>1.076810332831422</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.0747725579955</v>
+        <v>1.056453711611255</v>
       </c>
       <c r="D4">
-        <v>1.073547145343368</v>
+        <v>1.066434813717758</v>
       </c>
       <c r="E4">
-        <v>1.078314015975195</v>
+        <v>1.062285377386826</v>
       </c>
       <c r="F4">
-        <v>1.088462685324939</v>
+        <v>1.071205092727208</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.062452409196289</v>
+        <v>1.075979787547362</v>
       </c>
       <c r="J4">
-        <v>1.07912521098819</v>
+        <v>1.074515831133255</v>
       </c>
       <c r="K4">
-        <v>1.075939723953691</v>
+        <v>1.075792471829219</v>
       </c>
       <c r="L4">
-        <v>1.080695480968981</v>
+        <v>1.071685987602448</v>
       </c>
       <c r="M4">
-        <v>1.090820836773028</v>
+        <v>1.080513873207215</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.07514418642054</v>
+        <v>1.058291971388569</v>
       </c>
       <c r="D5">
-        <v>1.073845925778152</v>
+        <v>1.067913204574545</v>
       </c>
       <c r="E5">
-        <v>1.078653661465729</v>
+        <v>1.063933750649424</v>
       </c>
       <c r="F5">
-        <v>1.088830119571591</v>
+        <v>1.072958378319185</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.062595538018972</v>
+        <v>1.076813872060731</v>
       </c>
       <c r="J5">
-        <v>1.079403029489041</v>
+        <v>1.075895697944716</v>
       </c>
       <c r="K5">
-        <v>1.076188034622839</v>
+        <v>1.077049869784742</v>
       </c>
       <c r="L5">
-        <v>1.080984812066548</v>
+        <v>1.073110448366434</v>
       </c>
       <c r="M5">
-        <v>1.091138416554309</v>
+        <v>1.082044808611548</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.075206565963696</v>
+        <v>1.058598894601328</v>
       </c>
       <c r="D6">
-        <v>1.073896075607803</v>
+        <v>1.068160062482316</v>
       </c>
       <c r="E6">
-        <v>1.078710668312866</v>
+        <v>1.064208974089979</v>
       </c>
       <c r="F6">
-        <v>1.088891797644499</v>
+        <v>1.073251168911673</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.062619542485075</v>
+        <v>1.076952961694543</v>
       </c>
       <c r="J6">
-        <v>1.079449650768315</v>
+        <v>1.076125993700956</v>
       </c>
       <c r="K6">
-        <v>1.076229702013602</v>
+        <v>1.077259711626781</v>
       </c>
       <c r="L6">
-        <v>1.081033362971674</v>
+        <v>1.07334817837521</v>
       </c>
       <c r="M6">
-        <v>1.091191716133434</v>
+        <v>1.082300371266653</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.074777524956682</v>
+        <v>1.056478391359878</v>
       </c>
       <c r="D7">
-        <v>1.073551138785309</v>
+        <v>1.066454660630039</v>
       </c>
       <c r="E7">
-        <v>1.07831855575399</v>
+        <v>1.062307507464231</v>
       </c>
       <c r="F7">
-        <v>1.088467596058662</v>
+        <v>1.071228627914088</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.062454323534629</v>
+        <v>1.075990997216834</v>
       </c>
       <c r="J7">
-        <v>1.079128924935704</v>
+        <v>1.074534362867784</v>
       </c>
       <c r="K7">
-        <v>1.075943043575093</v>
+        <v>1.075809359745982</v>
       </c>
       <c r="L7">
-        <v>1.080699348975789</v>
+        <v>1.071705118798855</v>
       </c>
       <c r="M7">
-        <v>1.090825081865265</v>
+        <v>1.08053443017254</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.072981485868488</v>
+        <v>1.047353525742452</v>
       </c>
       <c r="D8">
-        <v>1.072106912035172</v>
+        <v>1.059119469035952</v>
       </c>
       <c r="E8">
-        <v>1.076676496643899</v>
+        <v>1.054126204768532</v>
       </c>
       <c r="F8">
-        <v>1.086692186202848</v>
+        <v>1.062533801725903</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.061759738929663</v>
+        <v>1.071826241652988</v>
       </c>
       <c r="J8">
-        <v>1.077784598173005</v>
+        <v>1.067671924886131</v>
       </c>
       <c r="K8">
-        <v>1.074741204604064</v>
+        <v>1.069554028624948</v>
       </c>
       <c r="L8">
-        <v>1.079298986533322</v>
+        <v>1.064619713752766</v>
       </c>
       <c r="M8">
-        <v>1.089289181016534</v>
+        <v>1.072928446888403</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.069806004645032</v>
+        <v>1.030166791463777</v>
       </c>
       <c r="D9">
-        <v>1.069552508372834</v>
+        <v>1.045322183857735</v>
       </c>
       <c r="E9">
-        <v>1.073770976952369</v>
+        <v>1.03872451442325</v>
       </c>
       <c r="F9">
-        <v>1.083554599238295</v>
+        <v>1.04619382764138</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.060520557561418</v>
+        <v>1.063886676677207</v>
       </c>
       <c r="J9">
-        <v>1.075401311360128</v>
+        <v>1.054697479333945</v>
       </c>
       <c r="K9">
-        <v>1.072609382870747</v>
+        <v>1.057720376257273</v>
       </c>
       <c r="L9">
-        <v>1.076815071582797</v>
+        <v>1.051219072768087</v>
       </c>
       <c r="M9">
-        <v>1.086569471428185</v>
+        <v>1.058579403961512</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.067681504702729</v>
+        <v>1.017832014744875</v>
       </c>
       <c r="D10">
-        <v>1.067842937746212</v>
+        <v>1.035438369798392</v>
       </c>
       <c r="E10">
-        <v>1.07182556937016</v>
+        <v>1.027680465876389</v>
       </c>
       <c r="F10">
-        <v>1.081456427884369</v>
+        <v>1.034496047731457</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.059684032647646</v>
+        <v>1.058126513891972</v>
       </c>
       <c r="J10">
-        <v>1.073802486140463</v>
+        <v>1.045355574519781</v>
       </c>
       <c r="K10">
-        <v>1.071178494396457</v>
+        <v>1.049195954423604</v>
       </c>
       <c r="L10">
-        <v>1.075147868078264</v>
+        <v>1.04156730156804</v>
       </c>
       <c r="M10">
-        <v>1.084747108415521</v>
+        <v>1.048269198849135</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.066759709130937</v>
+        <v>1.012248422178652</v>
       </c>
       <c r="D11">
-        <v>1.067101044037986</v>
+        <v>1.030970077578212</v>
       </c>
       <c r="E11">
-        <v>1.070981122375452</v>
+        <v>1.022684538134127</v>
       </c>
       <c r="F11">
-        <v>1.080546291927054</v>
+        <v>1.029208851726335</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.059319304154323</v>
+        <v>1.055505054879491</v>
       </c>
       <c r="J11">
-        <v>1.073107750589969</v>
+        <v>1.041120382969075</v>
       </c>
       <c r="K11">
-        <v>1.070556554809426</v>
+        <v>1.04533065899631</v>
       </c>
       <c r="L11">
-        <v>1.074423211847765</v>
+        <v>1.037190972302874</v>
       </c>
       <c r="M11">
-        <v>1.083955747728346</v>
+        <v>1.043600181920665</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.066417024672261</v>
+        <v>1.010134597739447</v>
       </c>
       <c r="D12">
-        <v>1.066825220532878</v>
+        <v>1.029279494616017</v>
       </c>
       <c r="E12">
-        <v>1.07066713938956</v>
+        <v>1.02079380688221</v>
       </c>
       <c r="F12">
-        <v>1.080207977841416</v>
+        <v>1.027208550676896</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.059183447806929</v>
+        <v>1.054510594373507</v>
       </c>
       <c r="J12">
-        <v>1.072849323771709</v>
+        <v>1.039516151241937</v>
       </c>
       <c r="K12">
-        <v>1.070325180092355</v>
+        <v>1.04386645191039</v>
       </c>
       <c r="L12">
-        <v>1.074153623743957</v>
+        <v>1.03553318652961</v>
       </c>
       <c r="M12">
-        <v>1.083661454673405</v>
+        <v>1.041832405221498</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.066490544823996</v>
+        <v>1.010589881806764</v>
       </c>
       <c r="D13">
-        <v>1.066884397056838</v>
+        <v>1.029643571099059</v>
       </c>
       <c r="E13">
-        <v>1.070734504288632</v>
+        <v>1.021201010572898</v>
       </c>
       <c r="F13">
-        <v>1.08028055873841</v>
+        <v>1.027639322489754</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.059212606699472</v>
+        <v>1.054724875915559</v>
       </c>
       <c r="J13">
-        <v>1.072904774082825</v>
+        <v>1.039861715643835</v>
       </c>
       <c r="K13">
-        <v>1.070374827062023</v>
+        <v>1.044181857455413</v>
       </c>
       <c r="L13">
-        <v>1.074211470341856</v>
+        <v>1.035890290993414</v>
       </c>
       <c r="M13">
-        <v>1.08372459730911</v>
+        <v>1.042213163101007</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.066731388654239</v>
+        <v>1.012074526446646</v>
       </c>
       <c r="D14">
-        <v>1.067078249533466</v>
+        <v>1.030830978800316</v>
       </c>
       <c r="E14">
-        <v>1.070955174963404</v>
+        <v>1.022528982215198</v>
       </c>
       <c r="F14">
-        <v>1.080518331898399</v>
+        <v>1.029044267806497</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.059308081995592</v>
+        <v>1.055423285482844</v>
       </c>
       <c r="J14">
-        <v>1.073086396550685</v>
+        <v>1.040988426765539</v>
       </c>
       <c r="K14">
-        <v>1.070537436647544</v>
+        <v>1.045210222168591</v>
       </c>
       <c r="L14">
-        <v>1.074400936183085</v>
+        <v>1.037054612854909</v>
       </c>
       <c r="M14">
-        <v>1.083931428475725</v>
+        <v>1.04345475741161</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.066879742038352</v>
+        <v>1.012983878471603</v>
       </c>
       <c r="D15">
-        <v>1.067197655012169</v>
+        <v>1.03155840934565</v>
       </c>
       <c r="E15">
-        <v>1.071091095149669</v>
+        <v>1.023342455665695</v>
       </c>
       <c r="F15">
-        <v>1.080664798587899</v>
+        <v>1.029904979684105</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.059366857034231</v>
+        <v>1.055850799519447</v>
       </c>
       <c r="J15">
-        <v>1.073198250808612</v>
+        <v>1.041678429274348</v>
       </c>
       <c r="K15">
-        <v>1.070637578109976</v>
+        <v>1.045839986149397</v>
       </c>
       <c r="L15">
-        <v>1.074517616705373</v>
+        <v>1.037767636304568</v>
       </c>
       <c r="M15">
-        <v>1.084058817891281</v>
+        <v>1.044215217869995</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.067742641167737</v>
+        <v>1.018197189491062</v>
       </c>
       <c r="D16">
-        <v>1.067892139843757</v>
+        <v>1.035730734134259</v>
       </c>
       <c r="E16">
-        <v>1.071881568323865</v>
+        <v>1.028007285374326</v>
       </c>
       <c r="F16">
-        <v>1.081516796045177</v>
+        <v>1.034842012804671</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.059708185370367</v>
+        <v>1.05829767690469</v>
       </c>
       <c r="J16">
-        <v>1.073848541710123</v>
+        <v>1.045632436133555</v>
       </c>
       <c r="K16">
-        <v>1.071219720444575</v>
+        <v>1.049448622215157</v>
       </c>
       <c r="L16">
-        <v>1.075195902761956</v>
+        <v>1.041853376439639</v>
       </c>
       <c r="M16">
-        <v>1.084799580167482</v>
+        <v>1.048574527592465</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.068283408497727</v>
+        <v>1.021400162069531</v>
       </c>
       <c r="D17">
-        <v>1.068327329676091</v>
+        <v>1.038295753605107</v>
       </c>
       <c r="E17">
-        <v>1.072376851859117</v>
+        <v>1.030874235479957</v>
       </c>
       <c r="F17">
-        <v>1.082050794807497</v>
+        <v>1.037877415274309</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.05992161799101</v>
+        <v>1.059797387270459</v>
       </c>
       <c r="J17">
-        <v>1.074255796597578</v>
+        <v>1.048060096299658</v>
       </c>
       <c r="K17">
-        <v>1.071584248966395</v>
+        <v>1.051664060786163</v>
       </c>
       <c r="L17">
-        <v>1.075620634289882</v>
+        <v>1.044361749351413</v>
       </c>
       <c r="M17">
-        <v>1.085263629947494</v>
+        <v>1.051252383827136</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.068598648692316</v>
+        <v>1.023245249302928</v>
       </c>
       <c r="D18">
-        <v>1.06858101080674</v>
+        <v>1.039773882133349</v>
       </c>
       <c r="E18">
-        <v>1.072665542816396</v>
+        <v>1.032526066326934</v>
       </c>
       <c r="F18">
-        <v>1.082362111980111</v>
+        <v>1.039626721476463</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.060045867889657</v>
+        <v>1.060659982221965</v>
       </c>
       <c r="J18">
-        <v>1.074493107040403</v>
+        <v>1.0494579560444</v>
       </c>
       <c r="K18">
-        <v>1.071796645346101</v>
+        <v>1.052939653860208</v>
       </c>
       <c r="L18">
-        <v>1.075868108448337</v>
+        <v>1.045806021678749</v>
       </c>
       <c r="M18">
-        <v>1.085534084162108</v>
+        <v>1.052794791356387</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.068706107095045</v>
+        <v>1.023870545369465</v>
       </c>
       <c r="D19">
-        <v>1.068667482912435</v>
+        <v>1.040274903932053</v>
       </c>
       <c r="E19">
-        <v>1.072763945317339</v>
+        <v>1.033085917997782</v>
       </c>
       <c r="F19">
-        <v>1.082468236952685</v>
+        <v>1.04021968160629</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.060088192987353</v>
+        <v>1.060952087907024</v>
       </c>
       <c r="J19">
-        <v>1.074573984167789</v>
+        <v>1.049931582884434</v>
       </c>
       <c r="K19">
-        <v>1.071869028673829</v>
+        <v>1.053371841794981</v>
       </c>
       <c r="L19">
-        <v>1.075952446046706</v>
+        <v>1.046295363449685</v>
       </c>
       <c r="M19">
-        <v>1.085626265238114</v>
+        <v>1.053317476125764</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.068225407977326</v>
+        <v>1.021058931322287</v>
       </c>
       <c r="D20">
-        <v>1.068280654278548</v>
+        <v>1.038022430840991</v>
       </c>
       <c r="E20">
-        <v>1.072323733311102</v>
+        <v>1.030568770071628</v>
       </c>
       <c r="F20">
-        <v>1.081993517903728</v>
+        <v>1.037553958216407</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.059898743718733</v>
+        <v>1.059637751400587</v>
       </c>
       <c r="J20">
-        <v>1.074212126292803</v>
+        <v>1.047801526337995</v>
       </c>
       <c r="K20">
-        <v>1.071545162015132</v>
+        <v>1.051428101502097</v>
       </c>
       <c r="L20">
-        <v>1.075575092025227</v>
+        <v>1.044094589112462</v>
       </c>
       <c r="M20">
-        <v>1.085213864409867</v>
+        <v>1.050967115184488</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.066660474171746</v>
+        <v>1.011638464492815</v>
       </c>
       <c r="D21">
-        <v>1.067021171784082</v>
+        <v>1.030482190685206</v>
       </c>
       <c r="E21">
-        <v>1.070890201773278</v>
+        <v>1.022138919578951</v>
       </c>
       <c r="F21">
-        <v>1.080448320557787</v>
+        <v>1.028631577717257</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.059279977414661</v>
+        <v>1.055218207607839</v>
       </c>
       <c r="J21">
-        <v>1.073032923549055</v>
+        <v>1.040657518714107</v>
       </c>
       <c r="K21">
-        <v>1.070489562116989</v>
+        <v>1.044908200060583</v>
       </c>
       <c r="L21">
-        <v>1.074345154816122</v>
+        <v>1.036712661264639</v>
       </c>
       <c r="M21">
-        <v>1.083870531465472</v>
+        <v>1.043090087339361</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.065674865204818</v>
+        <v>1.005482990070784</v>
       </c>
       <c r="D22">
-        <v>1.066227829573951</v>
+        <v>1.025561294204994</v>
       </c>
       <c r="E22">
-        <v>1.069987041873091</v>
+        <v>1.016634397181687</v>
       </c>
       <c r="F22">
-        <v>1.079475349333228</v>
+        <v>1.022809310895746</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.058888734635827</v>
+        <v>1.052318550000611</v>
       </c>
       <c r="J22">
-        <v>1.072289362166281</v>
+        <v>1.035984401314979</v>
       </c>
       <c r="K22">
-        <v>1.06982378705905</v>
+        <v>1.040642832959759</v>
       </c>
       <c r="L22">
-        <v>1.073569420110346</v>
+        <v>1.031883372284796</v>
       </c>
       <c r="M22">
-        <v>1.083023917164291</v>
+        <v>1.037942060219693</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.066197516137465</v>
+        <v>1.008769407032567</v>
       </c>
       <c r="D23">
-        <v>1.066648534942497</v>
+        <v>1.028187954223993</v>
       </c>
       <c r="E23">
-        <v>1.070466000738367</v>
+        <v>1.019572886735486</v>
       </c>
       <c r="F23">
-        <v>1.079991278906504</v>
+        <v>1.025917062552521</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.059096349427043</v>
+        <v>1.053867768661095</v>
       </c>
       <c r="J23">
-        <v>1.072683743736635</v>
+        <v>1.038479837255227</v>
       </c>
       <c r="K23">
-        <v>1.070176925543545</v>
+        <v>1.042920570326693</v>
       </c>
       <c r="L23">
-        <v>1.073980883550572</v>
+        <v>1.034462251912144</v>
       </c>
       <c r="M23">
-        <v>1.083472915763463</v>
+        <v>1.040690664706868</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.068251616472297</v>
+        <v>1.021213190105812</v>
       </c>
       <c r="D24">
-        <v>1.068301745368641</v>
+        <v>1.038145989082838</v>
       </c>
       <c r="E24">
-        <v>1.072347735912629</v>
+        <v>1.030706859607132</v>
       </c>
       <c r="F24">
-        <v>1.082019399350404</v>
+        <v>1.037700179803608</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.059909080364469</v>
+        <v>1.059709921439374</v>
       </c>
       <c r="J24">
-        <v>1.074231859747773</v>
+        <v>1.04791841888505</v>
       </c>
       <c r="K24">
-        <v>1.071562824426811</v>
+        <v>1.051534772581861</v>
       </c>
       <c r="L24">
-        <v>1.075595671431296</v>
+        <v>1.04421536528739</v>
       </c>
       <c r="M24">
-        <v>1.08523635198788</v>
+        <v>1.051096075987481</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C25">
-        <v>1.070628239895182</v>
+        <v>1.034753954649839</v>
       </c>
       <c r="D25">
-        <v>1.070214033709291</v>
+        <v>1.04900200516511</v>
       </c>
       <c r="E25">
-        <v>1.074523579055632</v>
+        <v>1.04283393808242</v>
       </c>
       <c r="F25">
-        <v>1.084366852156093</v>
+        <v>1.050550330819476</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.060842737544397</v>
+        <v>1.066016522360247</v>
       </c>
       <c r="J25">
-        <v>1.07601918444925</v>
+        <v>1.058165761670192</v>
       </c>
       <c r="K25">
-        <v>1.073162197121179</v>
+        <v>1.060884436285073</v>
       </c>
       <c r="L25">
-        <v>1.077459185516621</v>
+        <v>1.054801807251116</v>
       </c>
       <c r="M25">
-        <v>1.087274184320543</v>
+        <v>1.062411513464935</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>
